--- a/QA Testing Plan.xlsx
+++ b/QA Testing Plan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9147846aa9118a59/Documents/SNHU/GAM 305 - Digital Game Development/Mod3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Team1\GAM305_Team_One_FPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="107" documentId="13_ncr:1_{3B678C7C-B55D-4D6D-ADED-9B4D0E33DF25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6252370-14E9-4B1D-8568-24E5FC25C417}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE169286-D4A8-4450-84C6-135DB2A95478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{19EF330C-6F54-4365-A47E-10806019DE9B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{19EF330C-6F54-4365-A47E-10806019DE9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Traceability Matrix" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="132">
   <si>
     <t>Traceability Matrix</t>
   </si>
@@ -408,6 +408,33 @@
   </si>
   <si>
     <t>Spawner viruses can be defeated</t>
+  </si>
+  <si>
+    <t>Still needs reload animation, basic animations</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Win state set up just without actual condition</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Still making adjustments</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Quick adjustment</t>
+  </si>
+  <si>
+    <t>Needs asset builds replaced</t>
+  </si>
+  <si>
+    <t>making adjustments along the way</t>
   </si>
 </sst>
 </file>
@@ -1112,22 +1139,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AB4A1F4-D2AB-4474-B05F-C8B13F4E557C}">
   <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.54296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.26953125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="40" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7265625" style="1" customWidth="1"/>
-    <col min="5" max="8" width="23.26953125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="60.81640625" style="1" customWidth="1"/>
-    <col min="10" max="12" width="23.26953125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="1" customWidth="1"/>
+    <col min="5" max="8" width="23.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="60.85546875" style="1" customWidth="1"/>
+    <col min="10" max="12" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -1140,7 +1167,7 @@
       <c r="H1" s="30"/>
       <c r="I1" s="30"/>
     </row>
-    <row r="2" spans="1:22" s="5" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" s="5" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
@@ -1168,7 +1195,7 @@
       <c r="U2" s="13"/>
       <c r="V2" s="13"/>
     </row>
-    <row r="3" spans="1:22" ht="80.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
@@ -1183,7 +1210,7 @@
       <c r="H3" s="32"/>
       <c r="I3" s="33"/>
     </row>
-    <row r="4" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>3</v>
       </c>
@@ -1198,7 +1225,7 @@
       <c r="H4" s="35"/>
       <c r="I4" s="36"/>
     </row>
-    <row r="5" spans="1:22" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -1227,7 +1254,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="73.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1252,9 +1279,11 @@
       <c r="H6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="14"/>
-    </row>
-    <row r="7" spans="1:22" ht="73.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I6" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
@@ -1277,11 +1306,11 @@
         <v>27</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I7" s="14"/>
     </row>
-    <row r="8" spans="1:22" ht="73.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -1305,7 +1334,7 @@
       </c>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" spans="1:22" ht="73.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -1329,7 +1358,7 @@
       </c>
       <c r="I9" s="14"/>
     </row>
-    <row r="10" spans="1:22" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -1356,7 +1385,7 @@
       </c>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="1:22" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
@@ -1377,7 +1406,7 @@
       </c>
       <c r="I11" s="14"/>
     </row>
-    <row r="12" spans="1:22" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -1404,7 +1433,7 @@
       </c>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
@@ -1431,7 +1460,7 @@
       </c>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>39</v>
       </c>
@@ -1455,10 +1484,10 @@
       </c>
       <c r="I14" s="14"/>
     </row>
-    <row r="15" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I15" s="14"/>
     </row>
-    <row r="16" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>47</v>
       </c>
@@ -1485,10 +1514,10 @@
       </c>
       <c r="I16" s="14"/>
     </row>
-    <row r="17" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I17" s="14"/>
     </row>
-    <row r="18" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -1512,7 +1541,7 @@
       </c>
       <c r="I18" s="14"/>
     </row>
-    <row r="19" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>51</v>
       </c>
@@ -1536,7 +1565,7 @@
       </c>
       <c r="I19" s="14"/>
     </row>
-    <row r="20" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
@@ -1560,7 +1589,7 @@
       </c>
       <c r="I20" s="14"/>
     </row>
-    <row r="21" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
@@ -1584,7 +1613,7 @@
       </c>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
@@ -1608,109 +1637,109 @@
       </c>
       <c r="I22" s="14"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I23" s="14"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I24" s="14"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I25" s="14"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I26" s="14"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I27" s="14"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I28" s="14"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I29" s="14"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I30" s="14"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I31" s="14"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I32" s="14"/>
     </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I33" s="14"/>
     </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I34" s="14"/>
     </row>
-    <row r="35" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I35" s="14"/>
     </row>
-    <row r="36" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I36" s="14"/>
     </row>
-    <row r="37" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I37" s="14"/>
     </row>
-    <row r="38" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I38" s="14"/>
     </row>
-    <row r="39" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I39" s="14"/>
     </row>
-    <row r="40" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I40" s="14"/>
     </row>
-    <row r="41" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I41" s="14"/>
     </row>
-    <row r="42" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I42" s="14"/>
     </row>
-    <row r="43" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I43" s="14"/>
     </row>
-    <row r="44" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I44" s="14"/>
     </row>
-    <row r="45" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I45" s="14"/>
     </row>
-    <row r="46" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I46" s="14"/>
     </row>
-    <row r="47" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I47" s="14"/>
     </row>
-    <row r="48" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I48" s="14"/>
     </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I49" s="14"/>
     </row>
-    <row r="50" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I50" s="14"/>
     </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I51" s="14"/>
     </row>
-    <row r="52" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I52" s="14"/>
     </row>
-    <row r="53" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I53" s="14"/>
     </row>
-    <row r="54" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I54" s="14"/>
     </row>
-    <row r="55" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I55" s="14"/>
     </row>
-    <row r="56" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I56" s="14"/>
     </row>
-    <row r="57" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I57" s="14"/>
     </row>
   </sheetData>
@@ -1732,22 +1761,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF22DF2-4315-4979-99F8-D643944F4700}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.453125" customWidth="1"/>
-    <col min="2" max="2" width="59.81640625" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="59.85546875" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="65.7265625" customWidth="1"/>
-    <col min="5" max="5" width="57.26953125" customWidth="1"/>
-    <col min="6" max="6" width="68.81640625" style="24" customWidth="1"/>
-    <col min="7" max="7" width="38.81640625" customWidth="1"/>
+    <col min="4" max="4" width="65.7109375" customWidth="1"/>
+    <col min="5" max="5" width="57.28515625" customWidth="1"/>
+    <col min="6" max="6" width="68.85546875" style="24" customWidth="1"/>
+    <col min="7" max="7" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="37" t="s">
         <v>12</v>
       </c>
@@ -1757,7 +1786,7 @@
       <c r="E1" s="38"/>
       <c r="F1" s="39"/>
     </row>
-    <row r="2" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>3</v>
       </c>
@@ -1769,7 +1798,7 @@
       <c r="E2" s="41"/>
       <c r="F2" s="42"/>
     </row>
-    <row r="3" spans="1:7" s="9" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" s="9" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
@@ -1790,7 +1819,7 @@
       </c>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>55</v>
       </c>
@@ -1802,7 +1831,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="22"/>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>68</v>
       </c>
@@ -1812,7 +1841,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="25"/>
     </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>58</v>
       </c>
@@ -1821,7 +1850,7 @@
       </c>
       <c r="F6" s="23"/>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>79</v>
       </c>
@@ -1830,7 +1859,7 @@
       </c>
       <c r="F7" s="23"/>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>78</v>
       </c>
@@ -1839,7 +1868,7 @@
       </c>
       <c r="F8" s="23"/>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>72</v>
       </c>
@@ -1848,7 +1877,7 @@
       </c>
       <c r="F9" s="23"/>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>77</v>
       </c>
@@ -1857,7 +1886,7 @@
       </c>
       <c r="F10" s="23"/>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>76</v>
       </c>
@@ -1866,7 +1895,7 @@
       </c>
       <c r="F11" s="23"/>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>75</v>
       </c>
@@ -1875,7 +1904,7 @@
       </c>
       <c r="F12" s="23"/>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>81</v>
       </c>
@@ -1884,7 +1913,7 @@
       </c>
       <c r="F13" s="23"/>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>83</v>
       </c>
@@ -1893,194 +1922,242 @@
       </c>
       <c r="F14" s="23"/>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>85</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="C15" t="s">
+        <v>124</v>
+      </c>
       <c r="F15" s="23"/>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>87</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="C16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" t="s">
+        <v>125</v>
+      </c>
       <c r="F16" s="23"/>
     </row>
-    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>89</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="C17" t="s">
+        <v>124</v>
+      </c>
       <c r="F17" s="23"/>
     </row>
-    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>91</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>92</v>
       </c>
+      <c r="C18" t="s">
+        <v>126</v>
+      </c>
       <c r="F18" s="23"/>
     </row>
-    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>93</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="C19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" t="s">
+        <v>127</v>
+      </c>
       <c r="F19" s="23"/>
     </row>
-    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>95</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="C20" t="s">
+        <v>124</v>
+      </c>
       <c r="F20" s="23"/>
     </row>
-    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>97</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>98</v>
       </c>
+      <c r="C21" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" t="s">
+        <v>129</v>
+      </c>
       <c r="F21" s="23"/>
     </row>
-    <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>99</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>100</v>
       </c>
+      <c r="C22" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" t="s">
+        <v>130</v>
+      </c>
       <c r="F22" s="23"/>
     </row>
-    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>101</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>102</v>
       </c>
+      <c r="C23" t="s">
+        <v>126</v>
+      </c>
+      <c r="D23" t="s">
+        <v>131</v>
+      </c>
       <c r="F23" s="23"/>
     </row>
-    <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>103</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>104</v>
       </c>
+      <c r="C24" t="s">
+        <v>126</v>
+      </c>
       <c r="F24" s="23"/>
     </row>
-    <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>105</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>106</v>
       </c>
+      <c r="C25" t="s">
+        <v>126</v>
+      </c>
       <c r="F25" s="23"/>
     </row>
-    <row r="26" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
       <c r="F26" s="23"/>
     </row>
-    <row r="27" spans="1:6" ht="66.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="F27" s="23"/>
     </row>
-    <row r="28" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
       <c r="F28" s="23"/>
     </row>
-    <row r="29" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="F29" s="23"/>
     </row>
-    <row r="30" spans="1:6" ht="80.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="F30" s="23"/>
     </row>
-    <row r="31" spans="1:6" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
       <c r="F31" s="23"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
       <c r="F32" s="23"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
       <c r="F33" s="23"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
       <c r="F34" s="23"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
       <c r="F35" s="23"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
       <c r="F36" s="23"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
       <c r="F37" s="23"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
       <c r="F38" s="23"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
       <c r="F39" s="23"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
       <c r="F40" s="23"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
       <c r="F41" s="23"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
       <c r="F42" s="23"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
       <c r="F43" s="23"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
       <c r="F44" s="23"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="12"/>
       <c r="F45" s="23"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="12"/>
       <c r="F46" s="23"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="12"/>
       <c r="F47" s="23"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
       <c r="F48" s="23"/>
     </row>
@@ -2102,18 +2179,18 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.453125" customWidth="1"/>
-    <col min="2" max="2" width="59.81640625" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="59.85546875" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="65.7265625" customWidth="1"/>
-    <col min="5" max="5" width="57.26953125" customWidth="1"/>
-    <col min="6" max="6" width="68.81640625" style="24" customWidth="1"/>
-    <col min="7" max="7" width="38.81640625" customWidth="1"/>
+    <col min="4" max="4" width="65.7109375" customWidth="1"/>
+    <col min="5" max="5" width="57.28515625" customWidth="1"/>
+    <col min="6" max="6" width="68.85546875" style="24" customWidth="1"/>
+    <col min="7" max="7" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="37" t="s">
         <v>12</v>
       </c>
@@ -2123,7 +2200,7 @@
       <c r="E1" s="38"/>
       <c r="F1" s="39"/>
     </row>
-    <row r="2" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>3</v>
       </c>
@@ -2135,7 +2212,7 @@
       <c r="E2" s="41"/>
       <c r="F2" s="42"/>
     </row>
-    <row r="3" spans="1:7" s="9" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" s="9" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
@@ -2156,7 +2233,7 @@
       </c>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>55</v>
       </c>
@@ -2168,7 +2245,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="22"/>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>68</v>
       </c>
@@ -2178,7 +2255,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="25"/>
     </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>58</v>
       </c>
@@ -2187,7 +2264,7 @@
       </c>
       <c r="F6" s="23"/>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>79</v>
       </c>
@@ -2196,7 +2273,7 @@
       </c>
       <c r="F7" s="23"/>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>78</v>
       </c>
@@ -2205,7 +2282,7 @@
       </c>
       <c r="F8" s="23"/>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>72</v>
       </c>
@@ -2214,7 +2291,7 @@
       </c>
       <c r="F9" s="23"/>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>77</v>
       </c>
@@ -2223,7 +2300,7 @@
       </c>
       <c r="F10" s="23"/>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>76</v>
       </c>
@@ -2232,7 +2309,7 @@
       </c>
       <c r="F11" s="23"/>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>75</v>
       </c>
@@ -2241,7 +2318,7 @@
       </c>
       <c r="F12" s="23"/>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>109</v>
       </c>
@@ -2250,7 +2327,7 @@
       </c>
       <c r="F13" s="23"/>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>111</v>
       </c>
@@ -2259,7 +2336,7 @@
       </c>
       <c r="F14" s="23"/>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>113</v>
       </c>
@@ -2268,7 +2345,7 @@
       </c>
       <c r="F15" s="23"/>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>115</v>
       </c>
@@ -2277,7 +2354,7 @@
       </c>
       <c r="F16" s="23"/>
     </row>
-    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>117</v>
       </c>
@@ -2286,7 +2363,7 @@
       </c>
       <c r="F17" s="23"/>
     </row>
-    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>119</v>
       </c>
@@ -2295,7 +2372,7 @@
       </c>
       <c r="F18" s="23"/>
     </row>
-    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>121</v>
       </c>
@@ -2304,7 +2381,7 @@
       </c>
       <c r="F19" s="23"/>
     </row>
-    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>81</v>
       </c>
@@ -2313,7 +2390,7 @@
       </c>
       <c r="F20" s="23"/>
     </row>
-    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>83</v>
       </c>
@@ -2322,7 +2399,7 @@
       </c>
       <c r="F21" s="23"/>
     </row>
-    <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>85</v>
       </c>
@@ -2331,7 +2408,7 @@
       </c>
       <c r="F22" s="23"/>
     </row>
-    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>87</v>
       </c>
@@ -2340,7 +2417,7 @@
       </c>
       <c r="F23" s="23"/>
     </row>
-    <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>89</v>
       </c>
@@ -2349,7 +2426,7 @@
       </c>
       <c r="F24" s="23"/>
     </row>
-    <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>91</v>
       </c>
@@ -2358,7 +2435,7 @@
       </c>
       <c r="F25" s="23"/>
     </row>
-    <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>93</v>
       </c>
@@ -2367,7 +2444,7 @@
       </c>
       <c r="F26" s="23"/>
     </row>
-    <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>95</v>
       </c>
@@ -2376,7 +2453,7 @@
       </c>
       <c r="F27" s="23"/>
     </row>
-    <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>97</v>
       </c>
@@ -2385,7 +2462,7 @@
       </c>
       <c r="F28" s="23"/>
     </row>
-    <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>99</v>
       </c>
@@ -2394,7 +2471,7 @@
       </c>
       <c r="F29" s="23"/>
     </row>
-    <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>101</v>
       </c>
@@ -2403,7 +2480,7 @@
       </c>
       <c r="F30" s="23"/>
     </row>
-    <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>103</v>
       </c>
@@ -2412,7 +2489,7 @@
       </c>
       <c r="F31" s="23"/>
     </row>
-    <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>105</v>
       </c>
@@ -2421,7 +2498,7 @@
       </c>
       <c r="F32" s="23"/>
     </row>
-    <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>53</v>
       </c>
@@ -2430,87 +2507,87 @@
       </c>
       <c r="F33" s="23"/>
     </row>
-    <row r="34" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
       <c r="F34" s="23"/>
     </row>
-    <row r="35" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
       <c r="F35" s="23"/>
     </row>
-    <row r="36" spans="1:6" ht="80.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
       <c r="F36" s="23"/>
     </row>
-    <row r="37" spans="1:6" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
       <c r="F37" s="23"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
       <c r="F38" s="23"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
       <c r="F39" s="23"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
       <c r="F40" s="23"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
       <c r="F41" s="23"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
       <c r="F42" s="23"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
       <c r="F43" s="23"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
       <c r="F44" s="23"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="12"/>
       <c r="F45" s="23"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="12"/>
       <c r="F46" s="23"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="12"/>
       <c r="F47" s="23"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
       <c r="F48" s="23"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
       <c r="F49" s="23"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="12"/>
       <c r="F50" s="23"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="12"/>
       <c r="F51" s="23"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="12"/>
       <c r="F52" s="23"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="12"/>
       <c r="F53" s="23"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="12"/>
       <c r="F54" s="23"/>
     </row>
@@ -2532,18 +2609,18 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.453125" customWidth="1"/>
-    <col min="2" max="2" width="59.81640625" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="59.85546875" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="65.7265625" customWidth="1"/>
-    <col min="5" max="5" width="57.26953125" customWidth="1"/>
-    <col min="6" max="6" width="68.81640625" style="24" customWidth="1"/>
-    <col min="7" max="7" width="38.81640625" customWidth="1"/>
+    <col min="4" max="4" width="65.7109375" customWidth="1"/>
+    <col min="5" max="5" width="57.28515625" customWidth="1"/>
+    <col min="6" max="6" width="68.85546875" style="24" customWidth="1"/>
+    <col min="7" max="7" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="37" t="s">
         <v>12</v>
       </c>
@@ -2553,7 +2630,7 @@
       <c r="E1" s="38"/>
       <c r="F1" s="39"/>
     </row>
-    <row r="2" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>3</v>
       </c>
@@ -2565,7 +2642,7 @@
       <c r="E2" s="41"/>
       <c r="F2" s="42"/>
     </row>
-    <row r="3" spans="1:7" s="9" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" s="9" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
@@ -2586,7 +2663,7 @@
       </c>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>55</v>
       </c>
@@ -2598,7 +2675,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="22"/>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>68</v>
       </c>
@@ -2608,7 +2685,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="25"/>
     </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>58</v>
       </c>
@@ -2617,7 +2694,7 @@
       </c>
       <c r="F6" s="23"/>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>79</v>
       </c>
@@ -2626,7 +2703,7 @@
       </c>
       <c r="F7" s="23"/>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>78</v>
       </c>
@@ -2635,7 +2712,7 @@
       </c>
       <c r="F8" s="23"/>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>72</v>
       </c>
@@ -2644,7 +2721,7 @@
       </c>
       <c r="F9" s="23"/>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>77</v>
       </c>
@@ -2653,7 +2730,7 @@
       </c>
       <c r="F10" s="23"/>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>76</v>
       </c>
@@ -2662,7 +2739,7 @@
       </c>
       <c r="F11" s="23"/>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>75</v>
       </c>
@@ -2671,7 +2748,7 @@
       </c>
       <c r="F12" s="23"/>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>109</v>
       </c>
@@ -2680,7 +2757,7 @@
       </c>
       <c r="F13" s="23"/>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>111</v>
       </c>
@@ -2689,7 +2766,7 @@
       </c>
       <c r="F14" s="23"/>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>113</v>
       </c>
@@ -2698,7 +2775,7 @@
       </c>
       <c r="F15" s="23"/>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>115</v>
       </c>
@@ -2707,7 +2784,7 @@
       </c>
       <c r="F16" s="23"/>
     </row>
-    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>117</v>
       </c>
@@ -2716,7 +2793,7 @@
       </c>
       <c r="F17" s="23"/>
     </row>
-    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>119</v>
       </c>
@@ -2725,7 +2802,7 @@
       </c>
       <c r="F18" s="23"/>
     </row>
-    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>121</v>
       </c>
@@ -2734,7 +2811,7 @@
       </c>
       <c r="F19" s="23"/>
     </row>
-    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>81</v>
       </c>
@@ -2743,7 +2820,7 @@
       </c>
       <c r="F20" s="23"/>
     </row>
-    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>83</v>
       </c>
@@ -2752,7 +2829,7 @@
       </c>
       <c r="F21" s="23"/>
     </row>
-    <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>85</v>
       </c>
@@ -2761,7 +2838,7 @@
       </c>
       <c r="F22" s="23"/>
     </row>
-    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>87</v>
       </c>
@@ -2770,7 +2847,7 @@
       </c>
       <c r="F23" s="23"/>
     </row>
-    <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>89</v>
       </c>
@@ -2779,7 +2856,7 @@
       </c>
       <c r="F24" s="23"/>
     </row>
-    <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>91</v>
       </c>
@@ -2788,7 +2865,7 @@
       </c>
       <c r="F25" s="23"/>
     </row>
-    <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>93</v>
       </c>
@@ -2797,7 +2874,7 @@
       </c>
       <c r="F26" s="23"/>
     </row>
-    <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>95</v>
       </c>
@@ -2806,7 +2883,7 @@
       </c>
       <c r="F27" s="23"/>
     </row>
-    <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>97</v>
       </c>
@@ -2815,7 +2892,7 @@
       </c>
       <c r="F28" s="23"/>
     </row>
-    <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>99</v>
       </c>
@@ -2824,7 +2901,7 @@
       </c>
       <c r="F29" s="23"/>
     </row>
-    <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>101</v>
       </c>
@@ -2833,7 +2910,7 @@
       </c>
       <c r="F30" s="23"/>
     </row>
-    <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>103</v>
       </c>
@@ -2842,7 +2919,7 @@
       </c>
       <c r="F31" s="23"/>
     </row>
-    <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>105</v>
       </c>
@@ -2851,7 +2928,7 @@
       </c>
       <c r="F32" s="23"/>
     </row>
-    <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>53</v>
       </c>
@@ -2860,87 +2937,87 @@
       </c>
       <c r="F33" s="23"/>
     </row>
-    <row r="34" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
       <c r="F34" s="23"/>
     </row>
-    <row r="35" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
       <c r="F35" s="23"/>
     </row>
-    <row r="36" spans="1:6" ht="80.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
       <c r="F36" s="23"/>
     </row>
-    <row r="37" spans="1:6" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
       <c r="F37" s="23"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
       <c r="F38" s="23"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
       <c r="F39" s="23"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
       <c r="F40" s="23"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
       <c r="F41" s="23"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
       <c r="F42" s="23"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
       <c r="F43" s="23"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
       <c r="F44" s="23"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="12"/>
       <c r="F45" s="23"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="12"/>
       <c r="F46" s="23"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="12"/>
       <c r="F47" s="23"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
       <c r="F48" s="23"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
       <c r="F49" s="23"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="12"/>
       <c r="F50" s="23"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="12"/>
       <c r="F51" s="23"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="12"/>
       <c r="F52" s="23"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="12"/>
       <c r="F53" s="23"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="12"/>
       <c r="F54" s="23"/>
     </row>
@@ -2955,6 +3032,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ff8a4b2e-b0c8-4039-a689-d1a7f36f4382">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="f716dd8a-49a0-4c40-b209-038e1651b548" xsi:nil="true"/>
+    <Notes xmlns="ff8a4b2e-b0c8-4039-a689-d1a7f36f4382" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003FC679AA94041F4BA4494D199A3447AF" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7f196c085cfdbd30e0a6b7617037a918">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ff8a4b2e-b0c8-4039-a689-d1a7f36f4382" xmlns:ns3="f716dd8a-49a0-4c40-b209-038e1651b548" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c32ca31bb9a34b5b0e8feded347fb44b" ns2:_="" ns3:_="">
     <xsd:import namespace="ff8a4b2e-b0c8-4039-a689-d1a7f36f4382"/>
@@ -3211,28 +3309,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76F271AB-EFB2-4823-A2F0-9F2289E658DB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c534d78a-cb69-4aca-a069-043e1704d47b"/>
+    <ds:schemaRef ds:uri="40cc8b17-6277-40d3-adb4-53037ef9c179"/>
+    <ds:schemaRef ds:uri="ff8a4b2e-b0c8-4039-a689-d1a7f36f4382"/>
+    <ds:schemaRef ds:uri="f716dd8a-49a0-4c40-b209-038e1651b548"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ff8a4b2e-b0c8-4039-a689-d1a7f36f4382">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="f716dd8a-49a0-4c40-b209-038e1651b548" xsi:nil="true"/>
-    <Notes xmlns="ff8a4b2e-b0c8-4039-a689-d1a7f36f4382" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8F3069D-89E7-4007-93BF-1DB2942FF756}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81B87576-EBB2-43B7-B881-33A6175934F9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3249,25 +3347,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8F3069D-89E7-4007-93BF-1DB2942FF756}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76F271AB-EFB2-4823-A2F0-9F2289E658DB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c534d78a-cb69-4aca-a069-043e1704d47b"/>
-    <ds:schemaRef ds:uri="40cc8b17-6277-40d3-adb4-53037ef9c179"/>
-    <ds:schemaRef ds:uri="ff8a4b2e-b0c8-4039-a689-d1a7f36f4382"/>
-    <ds:schemaRef ds:uri="f716dd8a-49a0-4c40-b209-038e1651b548"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>